--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>DJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,54 @@
   </si>
   <si>
     <t>대부분의 일반 권한 및 일부 관리 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%패드립, %엄마삭제, %엄마검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%청소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%미카엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%탈출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%가챠, %도전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%스틸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%인원제한, %히든채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +514,11 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -477,8 +528,11 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -488,8 +542,11 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -499,8 +556,11 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -510,8 +570,11 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -521,8 +584,11 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -532,8 +598,11 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -543,8 +612,11 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -554,8 +626,11 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -565,8 +640,11 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -576,8 +654,11 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -587,8 +668,11 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -597,6 +681,9 @@
       </c>
       <c r="C13" t="s">
         <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"어어 여기 그런 방 아닙니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노래봇의 조작 권한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +166,10 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어어 여기 그런 역할 아닙니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -512,10 +512,10 @@
         <v>500</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -526,10 +526,10 @@
         <v>1500</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -540,10 +540,10 @@
         <v>2000</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -554,10 +554,10 @@
         <v>3000</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -568,10 +568,10 @@
         <v>5000</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -582,10 +582,10 @@
         <v>7500</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -596,10 +596,10 @@
         <v>8000</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -610,10 +610,10 @@
         <v>10000</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -624,10 +624,10 @@
         <v>15000</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -638,10 +638,10 @@
         <v>20000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -652,10 +652,10 @@
         <v>25000</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -666,10 +666,10 @@
         <v>40000</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -680,10 +680,10 @@
         <v>100000</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다른 멤버의 '창씨개명' 이하 권한을 덮어쓰는 권한 ('%도움말 스틸' 참조)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대부분의 일반 권한 및 일부 관리 권한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +166,10 @@
   </si>
   <si>
     <t>"어어 여기 그런 역할 아닙니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 멤버의 '창씨개명' 이하 권한을 가져오는 권한 ('%도움말 스틸' 참조)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -515,7 +515,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -529,7 +529,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -540,10 +540,10 @@
         <v>2000</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -599,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -613,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -627,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -641,7 +641,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -666,10 +666,10 @@
         <v>40000</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -680,10 +680,10 @@
         <v>100000</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
